--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3781.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3781.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.741348888309486</v>
+        <v>3.885879039764404</v>
       </c>
       <c r="B1">
-        <v>2.578321082296605</v>
+        <v>4.103427410125732</v>
       </c>
       <c r="C1">
-        <v>2.83191695979537</v>
+        <v>3.388366222381592</v>
       </c>
       <c r="D1">
-        <v>3.358213273547152</v>
+        <v>2.870473146438599</v>
       </c>
       <c r="E1">
-        <v>2.782029377520835</v>
+        <v>1.295594692230225</v>
       </c>
     </row>
   </sheetData>
